--- a/TestData/pythonDemo.xlsx
+++ b/TestData/pythonDemo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helloooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cab@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -192,10 +201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,10 +263,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="c@email.com"/>
     <hyperlink ref="D3" r:id="rId2" display="f@email.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="cab@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
